--- a/data/case1/13/V1_13.xlsx
+++ b/data/case1/13/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998875199725</v>
+        <v>0.9999999896980597</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99817297477393629</v>
+        <v>0.9979140901101089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99474281531811015</v>
+        <v>0.99500911094715372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99806572977302688</v>
+        <v>0.99829994061194649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98824773687619794</v>
+        <v>0.98844870547848007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96731762431108015</v>
+        <v>0.96720736925804229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96473564405186751</v>
+        <v>0.96430219109866777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95971652988344314</v>
+        <v>0.95893268788060304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95595843237737865</v>
+        <v>0.95450479057813964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95311946294419403</v>
+        <v>0.9509928921930928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95263803458591012</v>
+        <v>0.9504154328161335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95197814822229598</v>
+        <v>0.94957274327561958</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95242699683806098</v>
+        <v>0.94902966015798262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95405093618863446</v>
+        <v>0.95016936533334118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95648016777785816</v>
+        <v>0.95217291944375271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95397410690448337</v>
+        <v>0.95490657617021701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.95026663987773619</v>
+        <v>0.95119909219602317</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9491577743470303</v>
+        <v>0.95009022088517103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99628068766535183</v>
+        <v>0.99686094760782917</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98146148163407043</v>
+        <v>0.98974422730827283</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98006305170403785</v>
+        <v>0.98834579101362052</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97879856050411873</v>
+        <v>0.98708130049921083</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98770884065801812</v>
+        <v>0.98862830986042249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97468878767568179</v>
+        <v>0.97560830668469378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96823194482031227</v>
+        <v>0.96915147150716141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96461507329601304</v>
+        <v>0.96460109901984914</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9610960845429295</v>
+        <v>0.96121625791350607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94884630605224762</v>
+        <v>0.94929821801106118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94040628365520984</v>
+        <v>0.93691729457385242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93383756207554414</v>
+        <v>0.9316322516507074</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92618527433137077</v>
+        <v>0.9277326277516762</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92450607308293486</v>
+        <v>0.92739969671286127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92398608154414141</v>
+        <v>0.92687970325976643</v>
       </c>
     </row>
   </sheetData>
